--- a/out_booth_248/suspect_summary.xlsx
+++ b/out_booth_248/suspect_summary.xlsx
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>House number 1 on street '1-Mariamman Kovil Street Ward No-10' contains 13 registered voters including serial number 1, which exceeds the household size threshold.</t>
+          <t>Serial number 1 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Mariamman Kovil Street Ward No-10'. | House number 1 on street '1-Mariamman Kovil Street Ward No-10' contains 13 registered voters including serial number 1, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -650,16 +650,16 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>House number 1 on street '1-Mariamman Kovil Street Ward No-10' contains 13 registered voters including serial number 2, which exceeds the household size threshold.</t>
+          <t>Serial number 2 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Mariamman Kovil Street Ward No-10'. | House number 1 on street '1-Mariamman Kovil Street Ward No-10' contains 13 registered voters including serial number 2, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -3218,10 +3218,18 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Serial number 38 does not have any valid parent or spouse relationship with other voters in house number 2/217 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3284,10 +3292,18 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Serial number 39 does not have any valid parent or spouse relationship with other voters in house number 2/217 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3704,10 +3720,18 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Serial number 45 does not have any valid parent or spouse relationship with other voters in house number 3 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3770,16 +3794,16 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Serial number 46 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 46 does not have any valid parent or spouse relationship with other voters in house number 3 on street '1-Mariamman Kovil Street Ward No-10'. | Serial number 46 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -4428,18 +4452,10 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Serial number 55 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4568,10 +4584,18 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Serial number 57 does not have any valid parent or spouse relationship with other voters in house number 4 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4914,10 +4938,18 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Serial number 62 does not have any valid parent or spouse relationship with other voters in house number 5 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6018,16 +6050,16 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Serial number 78 is the only voter listed under house number 54-3 on street '1-Mariamman Kovil Street Ward No-10' in booth 248. | Serial number 78 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 78 is the only voter listed under house number 54-3 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
         </is>
       </c>
     </row>
@@ -7262,10 +7294,18 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Serial number 96 does not have any valid parent or spouse relationship with other voters in house number 6 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8414,18 +8454,10 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>Serial number 112 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -9476,10 +9508,18 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Serial number 127 does not have any valid parent or spouse relationship with other voters in house number 10 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -10036,10 +10076,18 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>Serial number 135 does not have any valid parent or spouse relationship with other voters in house number 11 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -10168,10 +10216,18 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>Serial number 137 does not have any valid parent or spouse relationship with other voters in house number 11 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -11050,18 +11106,10 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>1</v>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>Serial number 150 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -12454,12 +12502,12 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>Serial number 170 is the only voter listed under house number 13-4 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
+          <t>Serial number 170 does not have any valid parent or spouse relationship with other voters in house number 13-4 on street '1-Mariamman Kovil Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -12524,18 +12572,10 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>1</v>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>Serial number 171 is the only voter listed under house number 13/4 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -14138,10 +14178,18 @@
         </is>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>Serial number 194 does not have any valid parent or spouse relationship with other voters in house number 15 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -14204,10 +14252,18 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>Serial number 195 does not have any valid parent or spouse relationship with other voters in house number 15 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -15094,10 +15150,18 @@
         </is>
       </c>
       <c r="N209" t="n">
-        <v>0</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>Serial number 208 does not have any valid parent or spouse relationship with other voters in house number 16 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -15160,10 +15224,18 @@
         </is>
       </c>
       <c r="N210" t="n">
-        <v>0</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>Serial number 209 does not have any valid parent or spouse relationship with other voters in house number 16 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -15968,16 +16040,16 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>Serial number 221 is the only voter listed under house number 16-25 on street '1-Mariamman Kovil Street Ward No-10' in booth 248. | Serial number 221 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 221 is the only voter listed under house number 16-25 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
         </is>
       </c>
     </row>
@@ -16042,18 +16114,10 @@
         </is>
       </c>
       <c r="N223" t="n">
-        <v>1</v>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P223" t="inlineStr">
-        <is>
-          <t>Serial number 222 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -16322,10 +16386,18 @@
         </is>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Serial number 226 does not have any valid parent or spouse relationship with other voters in house number 17 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -16388,10 +16460,18 @@
         </is>
       </c>
       <c r="N228" t="n">
-        <v>0</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Serial number 227 does not have any valid parent or spouse relationship with other voters in house number 17 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -17286,10 +17366,18 @@
         </is>
       </c>
       <c r="N241" t="n">
-        <v>0</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Serial number 240 does not have any valid parent or spouse relationship with other voters in house number 19 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -17994,10 +18082,18 @@
         </is>
       </c>
       <c r="N251" t="n">
-        <v>0</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>Serial number 250 does not have any valid parent or spouse relationship with other voters in house number 21 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -18192,10 +18288,18 @@
         </is>
       </c>
       <c r="N254" t="n">
-        <v>0</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>Serial number 253 does not have any valid parent or spouse relationship with other voters in house number 21 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -19032,10 +19136,18 @@
         </is>
       </c>
       <c r="N266" t="n">
-        <v>0</v>
-      </c>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>Serial number 265 does not have any valid parent or spouse relationship with other voters in house number 24 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -19098,10 +19210,18 @@
         </is>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>Serial number 266 does not have any valid parent or spouse relationship with other voters in house number 24 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -21330,16 +21450,16 @@
         </is>
       </c>
       <c r="N299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>Serial number 298 has invalid age value 0.</t>
+          <t>Serial number 298 does not have any valid parent or spouse relationship with other voters in house number 27 on street '1-Mariamman Kovil Street Ward No-10'. | Serial number 298 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -21470,10 +21590,18 @@
         </is>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
-      </c>
-      <c r="O301" t="inlineStr"/>
-      <c r="P301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>Serial number 300 does not have any valid parent or spouse relationship with other voters in house number 27 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -21932,10 +22060,18 @@
         </is>
       </c>
       <c r="N308" t="n">
-        <v>0</v>
-      </c>
-      <c r="O308" t="inlineStr"/>
-      <c r="P308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>Serial number 307 does not have any valid parent or spouse relationship with other voters in house number 27-1 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -26080,10 +26216,18 @@
         </is>
       </c>
       <c r="N366" t="n">
-        <v>0</v>
-      </c>
-      <c r="O366" t="inlineStr"/>
-      <c r="P366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>Serial number 365 does not have any valid parent or spouse relationship with other voters in house number 30C on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -26146,10 +26290,18 @@
         </is>
       </c>
       <c r="N367" t="n">
-        <v>0</v>
-      </c>
-      <c r="O367" t="inlineStr"/>
-      <c r="P367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>Serial number 366 does not have any valid parent or spouse relationship with other voters in house number 30C on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -26632,10 +26784,18 @@
         </is>
       </c>
       <c r="N374" t="n">
-        <v>0</v>
-      </c>
-      <c r="O374" t="inlineStr"/>
-      <c r="P374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>Serial number 373 does not have any valid parent or spouse relationship with other voters in house number 31 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -26764,10 +26924,18 @@
         </is>
       </c>
       <c r="N376" t="n">
-        <v>0</v>
-      </c>
-      <c r="O376" t="inlineStr"/>
-      <c r="P376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>Serial number 375 does not have any valid parent or spouse relationship with other voters in house number 31 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -27258,16 +27426,16 @@
         </is>
       </c>
       <c r="N383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>Serial number 382 was flagged due to rule: INVALID_EPIC_ID. | Serial number 382 does not have a valid house number recorded.</t>
+          <t>Serial number 382 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -27406,18 +27574,10 @@
         </is>
       </c>
       <c r="N385" t="n">
-        <v>1</v>
-      </c>
-      <c r="O385" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P385" t="inlineStr">
-        <is>
-          <t>Serial number 384 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O385" t="inlineStr"/>
+      <c r="P385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -29416,16 +29576,16 @@
         </is>
       </c>
       <c r="N414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P414" t="inlineStr">
         <is>
-          <t>Serial number 413 is the only voter listed under house number 35-14 on street '1-Mariamman Kovil Street Ward No-10' in booth 248. | Serial number 413 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 413 is the only voter listed under house number 35-14 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
         </is>
       </c>
     </row>
@@ -29786,16 +29946,16 @@
         </is>
       </c>
       <c r="N419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P419" t="inlineStr">
         <is>
-          <t>Serial number 418 does not have any valid parent or spouse relationship with other voters in house number 364 on street '1-Mariamman Kovil Street Ward No-10'. | Serial number 418 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 418 does not have any valid parent or spouse relationship with other voters in house number 364 on street '1-Mariamman Kovil Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -30584,18 +30744,10 @@
         </is>
       </c>
       <c r="N430" t="n">
-        <v>1</v>
-      </c>
-      <c r="O430" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P430" t="inlineStr">
-        <is>
-          <t>Serial number 429 is the only voter listed under house number 37-14 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -31144,10 +31296,18 @@
         </is>
       </c>
       <c r="N438" t="n">
-        <v>0</v>
-      </c>
-      <c r="O438" t="inlineStr"/>
-      <c r="P438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>Serial number 437 does not have any valid parent or spouse relationship with other voters in house number 38 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -31210,10 +31370,18 @@
         </is>
       </c>
       <c r="N439" t="n">
-        <v>0</v>
-      </c>
-      <c r="O439" t="inlineStr"/>
-      <c r="P439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>Serial number 438 does not have any valid parent or spouse relationship with other voters in house number 38 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -31416,16 +31584,16 @@
         </is>
       </c>
       <c r="N442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P442" t="inlineStr">
         <is>
-          <t>Serial number 441 is the only voter listed under house number 384 on street '1-Mariamman Kovil Street Ward No-10' in booth 248. | Serial number 441 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 441 is the only voter listed under house number 384 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
         </is>
       </c>
     </row>
@@ -32296,10 +32464,18 @@
         </is>
       </c>
       <c r="N454" t="n">
-        <v>0</v>
-      </c>
-      <c r="O454" t="inlineStr"/>
-      <c r="P454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>Serial number 453 does not have any valid parent or spouse relationship with other voters in house number 39-2 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -33572,16 +33748,16 @@
         </is>
       </c>
       <c r="N472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P472" t="inlineStr">
         <is>
-          <t>House number 40 on street '1-Mariamman Kovil Street Ward No-10' contains 11 registered voters including serial number 471, which exceeds the household size threshold.</t>
+          <t>Serial number 471 does not have any valid parent or spouse relationship with other voters in house number 40 on street '1-Mariamman Kovil Street Ward No-10'. | House number 40 on street '1-Mariamman Kovil Street Ward No-10' contains 11 registered voters including serial number 471, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -34238,16 +34414,16 @@
         </is>
       </c>
       <c r="N481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>House number 40 on street '1-Mariamman Kovil Street Ward No-10' contains 11 registered voters including serial number 480, which exceeds the household size threshold.</t>
+          <t>Serial number 480 does not have any valid parent or spouse relationship with other voters in house number 40 on street '1-Mariamman Kovil Street Ward No-10'. | House number 40 on street '1-Mariamman Kovil Street Ward No-10' contains 11 registered voters including serial number 480, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -34312,16 +34488,16 @@
         </is>
       </c>
       <c r="N482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>House number 40 on street '1-Mariamman Kovil Street Ward No-10' contains 11 registered voters including serial number 481, which exceeds the household size threshold.</t>
+          <t>Serial number 481 does not have any valid parent or spouse relationship with other voters in house number 40 on street '1-Mariamman Kovil Street Ward No-10'. | House number 40 on street '1-Mariamman Kovil Street Ward No-10' contains 11 registered voters including serial number 481, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -34452,10 +34628,18 @@
         </is>
       </c>
       <c r="N484" t="n">
-        <v>0</v>
-      </c>
-      <c r="O484" t="inlineStr"/>
-      <c r="P484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>Serial number 483 does not have any valid parent or spouse relationship with other voters in house number 40-1 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -37350,10 +37534,18 @@
         </is>
       </c>
       <c r="N525" t="n">
-        <v>0</v>
-      </c>
-      <c r="O525" t="inlineStr"/>
-      <c r="P525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>Serial number 524 does not have any valid parent or spouse relationship with other voters in house number 43-33 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -37416,10 +37608,18 @@
         </is>
       </c>
       <c r="N526" t="n">
-        <v>0</v>
-      </c>
-      <c r="O526" t="inlineStr"/>
-      <c r="P526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>Serial number 525 does not have any valid parent or spouse relationship with other voters in house number 43-33 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -38306,10 +38506,18 @@
         </is>
       </c>
       <c r="N539" t="n">
-        <v>0</v>
-      </c>
-      <c r="O539" t="inlineStr"/>
-      <c r="P539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>Serial number 538 does not have any valid parent or spouse relationship with other voters in house number 43C on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -38578,10 +38786,18 @@
         </is>
       </c>
       <c r="N543" t="n">
-        <v>0</v>
-      </c>
-      <c r="O543" t="inlineStr"/>
-      <c r="P543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>Serial number 542 does not have any valid parent or spouse relationship with other voters in house number 43D on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -39114,18 +39330,10 @@
         </is>
       </c>
       <c r="N551" t="n">
-        <v>1</v>
-      </c>
-      <c r="O551" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P551" t="inlineStr">
-        <is>
-          <t>Serial number 550 does not have any valid parent or spouse relationship with other voters in house number 44/34 on street '1-Mariamman Kovil Street Ward No-10'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -39188,18 +39396,10 @@
         </is>
       </c>
       <c r="N552" t="n">
-        <v>1</v>
-      </c>
-      <c r="O552" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P552" t="inlineStr">
-        <is>
-          <t>Serial number 551 does not have any valid parent or spouse relationship with other voters in house number 44/34 on street '1-Mariamman Kovil Street Ward No-10'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -39402,10 +39602,18 @@
         </is>
       </c>
       <c r="N555" t="n">
-        <v>0</v>
-      </c>
-      <c r="O555" t="inlineStr"/>
-      <c r="P555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P555" t="inlineStr">
+        <is>
+          <t>Serial number 554 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -39674,10 +39882,18 @@
         </is>
       </c>
       <c r="N559" t="n">
-        <v>0</v>
-      </c>
-      <c r="O559" t="inlineStr"/>
-      <c r="P559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P559" t="inlineStr">
+        <is>
+          <t>Serial number 558 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -39942,12 +40158,12 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P563" t="inlineStr">
         <is>
-          <t>Serial number 562 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 562 does not have any valid parent or spouse relationship with other voters in house number 46 on street '1-Mariamman Kovil Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -40086,10 +40302,18 @@
         </is>
       </c>
       <c r="N565" t="n">
-        <v>0</v>
-      </c>
-      <c r="O565" t="inlineStr"/>
-      <c r="P565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P565" t="inlineStr">
+        <is>
+          <t>Serial number 564 does not have any valid parent or spouse relationship with other voters in house number 47 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -40350,10 +40574,18 @@
         </is>
       </c>
       <c r="N569" t="n">
-        <v>0</v>
-      </c>
-      <c r="O569" t="inlineStr"/>
-      <c r="P569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P569" t="inlineStr">
+        <is>
+          <t>Serial number 568 does not have any valid parent or spouse relationship with other voters in house number 47 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -40416,10 +40648,18 @@
         </is>
       </c>
       <c r="N570" t="n">
-        <v>0</v>
-      </c>
-      <c r="O570" t="inlineStr"/>
-      <c r="P570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P570" t="inlineStr">
+        <is>
+          <t>Serial number 569 does not have any valid parent or spouse relationship with other voters in house number 47 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -40482,10 +40722,18 @@
         </is>
       </c>
       <c r="N571" t="n">
-        <v>0</v>
-      </c>
-      <c r="O571" t="inlineStr"/>
-      <c r="P571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P571" t="inlineStr">
+        <is>
+          <t>Serial number 570 does not have any valid parent or spouse relationship with other voters in house number 47 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -40548,10 +40796,18 @@
         </is>
       </c>
       <c r="N572" t="n">
-        <v>0</v>
-      </c>
-      <c r="O572" t="inlineStr"/>
-      <c r="P572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P572" t="inlineStr">
+        <is>
+          <t>Serial number 571 does not have any valid parent or spouse relationship with other voters in house number 47 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -40750,12 +41006,12 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P575" t="inlineStr">
         <is>
-          <t>Serial number 574 is the only voter listed under house number 47-2 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
+          <t>Serial number 574 does not have any valid parent or spouse relationship with other voters in house number 47-2 on street '1-Mariamman Kovil Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -40824,12 +41080,12 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P576" t="inlineStr">
         <is>
-          <t>Serial number 575 is the only voter listed under house number 47/2 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
+          <t>Serial number 575 does not have any valid parent or spouse relationship with other voters in house number 47/2 on street '1-Mariamman Kovil Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -42804,10 +43060,18 @@
         </is>
       </c>
       <c r="N604" t="n">
-        <v>0</v>
-      </c>
-      <c r="O604" t="inlineStr"/>
-      <c r="P604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P604" t="inlineStr">
+        <is>
+          <t>Serial number 603 does not have any valid parent or spouse relationship with other voters in house number 49 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -43002,10 +43266,18 @@
         </is>
       </c>
       <c r="N607" t="n">
-        <v>0</v>
-      </c>
-      <c r="O607" t="inlineStr"/>
-      <c r="P607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P607" t="inlineStr">
+        <is>
+          <t>Serial number 606 does not have any valid parent or spouse relationship with other voters in house number 49 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -43134,10 +43406,18 @@
         </is>
       </c>
       <c r="N609" t="n">
-        <v>0</v>
-      </c>
-      <c r="O609" t="inlineStr"/>
-      <c r="P609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P609" t="inlineStr">
+        <is>
+          <t>Serial number 608 does not have any valid parent or spouse relationship with other voters in house number 49 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -43760,10 +44040,18 @@
         </is>
       </c>
       <c r="N618" t="n">
-        <v>0</v>
-      </c>
-      <c r="O618" t="inlineStr"/>
-      <c r="P618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P618" t="inlineStr">
+        <is>
+          <t>Serial number 617 does not have any valid parent or spouse relationship with other voters in house number 494 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -44740,18 +45028,10 @@
         </is>
       </c>
       <c r="N632" t="n">
-        <v>1</v>
-      </c>
-      <c r="O632" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P632" t="inlineStr">
-        <is>
-          <t>Serial number 631 is the only voter listed under house number 50/2 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O632" t="inlineStr"/>
+      <c r="P632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -45168,10 +45448,18 @@
         </is>
       </c>
       <c r="N638" t="n">
-        <v>0</v>
-      </c>
-      <c r="O638" t="inlineStr"/>
-      <c r="P638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P638" t="inlineStr">
+        <is>
+          <t>Serial number 637 does not have any valid parent or spouse relationship with other voters in house number 51 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -45234,10 +45522,18 @@
         </is>
       </c>
       <c r="N639" t="n">
-        <v>0</v>
-      </c>
-      <c r="O639" t="inlineStr"/>
-      <c r="P639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P639" t="inlineStr">
+        <is>
+          <t>Serial number 638 does not have any valid parent or spouse relationship with other voters in house number 51 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -45770,10 +46066,18 @@
         </is>
       </c>
       <c r="N647" t="n">
-        <v>0</v>
-      </c>
-      <c r="O647" t="inlineStr"/>
-      <c r="P647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>Serial number 646 does not have any valid parent or spouse relationship with other voters in house number 51-4 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -45836,10 +46140,18 @@
         </is>
       </c>
       <c r="N648" t="n">
-        <v>0</v>
-      </c>
-      <c r="O648" t="inlineStr"/>
-      <c r="P648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P648" t="inlineStr">
+        <is>
+          <t>Serial number 647 does not have any valid parent or spouse relationship with other voters in house number 51-4 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -46314,16 +46626,16 @@
         </is>
       </c>
       <c r="N655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P655" t="inlineStr">
         <is>
-          <t>Serial number 654 does not have any valid parent or spouse relationship with other voters in house number 51A on street '1-Mariamman Kovil Street Ward No-10'. | Serial number 654 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 654 does not have any valid parent or spouse relationship with other voters in house number 51A on street '1-Mariamman Kovil Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -47392,10 +47704,18 @@
         </is>
       </c>
       <c r="N670" t="n">
-        <v>0</v>
-      </c>
-      <c r="O670" t="inlineStr"/>
-      <c r="P670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O670" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P670" t="inlineStr">
+        <is>
+          <t>Serial number 669 does not have any valid parent or spouse relationship with other voters in house number 53 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -47746,10 +48066,18 @@
         </is>
       </c>
       <c r="N675" t="n">
-        <v>0</v>
-      </c>
-      <c r="O675" t="inlineStr"/>
-      <c r="P675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O675" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P675" t="inlineStr">
+        <is>
+          <t>Serial number 674 does not have any valid parent or spouse relationship with other voters in house number 54 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -49434,10 +49762,18 @@
         </is>
       </c>
       <c r="N699" t="n">
-        <v>0</v>
-      </c>
-      <c r="O699" t="inlineStr"/>
-      <c r="P699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O699" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P699" t="inlineStr">
+        <is>
+          <t>Serial number 698 does not have any valid parent or spouse relationship with other voters in house number 58 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -49500,10 +49836,18 @@
         </is>
       </c>
       <c r="N700" t="n">
-        <v>0</v>
-      </c>
-      <c r="O700" t="inlineStr"/>
-      <c r="P700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O700" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P700" t="inlineStr">
+        <is>
+          <t>Serial number 699 does not have any valid parent or spouse relationship with other voters in house number 58 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -49566,10 +49910,18 @@
         </is>
       </c>
       <c r="N701" t="n">
-        <v>0</v>
-      </c>
-      <c r="O701" t="inlineStr"/>
-      <c r="P701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O701" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P701" t="inlineStr">
+        <is>
+          <t>Serial number 700 does not have any valid parent or spouse relationship with other voters in house number 58 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -51948,10 +52300,18 @@
         </is>
       </c>
       <c r="N736" t="n">
-        <v>0</v>
-      </c>
-      <c r="O736" t="inlineStr"/>
-      <c r="P736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O736" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P736" t="inlineStr">
+        <is>
+          <t>Serial number 735 does not have any valid parent or spouse relationship with other voters in house number 64 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -52294,10 +52654,18 @@
         </is>
       </c>
       <c r="N741" t="n">
-        <v>0</v>
-      </c>
-      <c r="O741" t="inlineStr"/>
-      <c r="P741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O741" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P741" t="inlineStr">
+        <is>
+          <t>Serial number 740 does not have any valid parent or spouse relationship with other voters in house number 66 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
@@ -52920,10 +53288,18 @@
         </is>
       </c>
       <c r="N750" t="n">
-        <v>0</v>
-      </c>
-      <c r="O750" t="inlineStr"/>
-      <c r="P750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O750" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P750" t="inlineStr">
+        <is>
+          <t>Serial number 749 does not have any valid parent or spouse relationship with other voters in house number 67 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -53546,10 +53922,18 @@
         </is>
       </c>
       <c r="N759" t="n">
-        <v>0</v>
-      </c>
-      <c r="O759" t="inlineStr"/>
-      <c r="P759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O759" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P759" t="inlineStr">
+        <is>
+          <t>Serial number 758 does not have any valid parent or spouse relationship with other voters in house number 71 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
@@ -53612,10 +53996,18 @@
         </is>
       </c>
       <c r="N760" t="n">
-        <v>0</v>
-      </c>
-      <c r="O760" t="inlineStr"/>
-      <c r="P760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P760" t="inlineStr">
+        <is>
+          <t>Serial number 759 does not have any valid parent or spouse relationship with other voters in house number 71 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -54016,10 +54408,18 @@
         </is>
       </c>
       <c r="N766" t="n">
-        <v>0</v>
-      </c>
-      <c r="O766" t="inlineStr"/>
-      <c r="P766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O766" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P766" t="inlineStr">
+        <is>
+          <t>Serial number 765 does not have any valid parent or spouse relationship with other voters in house number 72 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -54082,18 +54482,10 @@
         </is>
       </c>
       <c r="N767" t="n">
-        <v>1</v>
-      </c>
-      <c r="O767" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P767" t="inlineStr">
-        <is>
-          <t>Serial number 766 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O767" t="inlineStr"/>
+      <c r="P767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="n">
@@ -54560,10 +54952,18 @@
         </is>
       </c>
       <c r="N774" t="n">
-        <v>0</v>
-      </c>
-      <c r="O774" t="inlineStr"/>
-      <c r="P774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O774" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P774" t="inlineStr">
+        <is>
+          <t>Serial number 773 does not have any valid parent or spouse relationship with other voters in house number 74 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
@@ -54626,10 +55026,18 @@
         </is>
       </c>
       <c r="N775" t="n">
-        <v>0</v>
-      </c>
-      <c r="O775" t="inlineStr"/>
-      <c r="P775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O775" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P775" t="inlineStr">
+        <is>
+          <t>Serial number 774 does not have any valid parent or spouse relationship with other voters in house number 74 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
@@ -55556,16 +55964,16 @@
         </is>
       </c>
       <c r="N788" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P788" t="inlineStr">
         <is>
-          <t>House number 79 on street '1-Mariamman Kovil Street Ward No-10' contains 12 registered voters including serial number 787, which exceeds the household size threshold.</t>
+          <t>Serial number 787 does not have any valid parent or spouse relationship with other voters in house number 79 on street '1-Mariamman Kovil Street Ward No-10'. | House number 79 on street '1-Mariamman Kovil Street Ward No-10' contains 12 registered voters including serial number 787, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -59440,10 +59848,18 @@
         </is>
       </c>
       <c r="N842" t="n">
-        <v>0</v>
-      </c>
-      <c r="O842" t="inlineStr"/>
-      <c r="P842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P842" t="inlineStr">
+        <is>
+          <t>Serial number 841 does not have any valid parent or spouse relationship with other voters in house number 87 on street '1-Mariamman Kovil Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
@@ -60872,16 +61288,16 @@
         </is>
       </c>
       <c r="N862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P862" t="inlineStr">
         <is>
-          <t>Serial number 861 is the only voter listed under house number 152 on street '1-Mariamman Kovil Street Ward No-10' in booth 248. | Serial number 861 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 861 is the only voter listed under house number 152 on street '1-Mariamman Kovil Street Ward No-10' in booth 248.</t>
         </is>
       </c>
     </row>
@@ -65446,16 +65862,16 @@
         </is>
       </c>
       <c r="N925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P925" t="inlineStr">
         <is>
-          <t>House number 7-36 on street '2-West Street Ward No-10' contains 16 registered voters including serial number 924, which exceeds the household size threshold. | Serial number 924 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 7-36 on street '2-West Street Ward No-10' contains 16 registered voters including serial number 924, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -66310,10 +66726,18 @@
         </is>
       </c>
       <c r="N937" t="n">
-        <v>0</v>
-      </c>
-      <c r="O937" t="inlineStr"/>
-      <c r="P937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O937" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P937" t="inlineStr">
+        <is>
+          <t>Serial number 936 does not have any valid parent or spouse relationship with other voters in house number 8 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
@@ -66376,10 +66800,18 @@
         </is>
       </c>
       <c r="N938" t="n">
-        <v>0</v>
-      </c>
-      <c r="O938" t="inlineStr"/>
-      <c r="P938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O938" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P938" t="inlineStr">
+        <is>
+          <t>Serial number 937 does not have any valid parent or spouse relationship with other voters in house number 8 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
@@ -66870,18 +67302,10 @@
         </is>
       </c>
       <c r="N945" t="n">
-        <v>1</v>
-      </c>
-      <c r="O945" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P945" t="inlineStr">
-        <is>
-          <t>Serial number 944 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O945" t="inlineStr"/>
+      <c r="P945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="n">
@@ -67866,10 +68290,18 @@
         </is>
       </c>
       <c r="N959" t="n">
-        <v>0</v>
-      </c>
-      <c r="O959" t="inlineStr"/>
-      <c r="P959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O959" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P959" t="inlineStr">
+        <is>
+          <t>Serial number 958 does not have any valid parent or spouse relationship with other voters in house number 14 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
@@ -70394,10 +70826,18 @@
         </is>
       </c>
       <c r="N995" t="n">
-        <v>0</v>
-      </c>
-      <c r="O995" t="inlineStr"/>
-      <c r="P995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O995" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P995" t="inlineStr">
+        <is>
+          <t>Serial number 994 does not have any valid parent or spouse relationship with other voters in house number 28B on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
@@ -70526,10 +70966,18 @@
         </is>
       </c>
       <c r="N997" t="n">
-        <v>0</v>
-      </c>
-      <c r="O997" t="inlineStr"/>
-      <c r="P997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O997" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P997" t="inlineStr">
+        <is>
+          <t>Serial number 996 does not have any valid parent or spouse relationship with other voters in house number 28B on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
@@ -70814,16 +71262,16 @@
         </is>
       </c>
       <c r="N1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1001" t="inlineStr">
         <is>
-          <t>Serial number 1000 is the only voter listed under house number 31-27 on street '2-West Street Ward No-10' in booth 248. | Serial number 1000 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1000 is the only voter listed under house number 31-27 on street '2-West Street Ward No-10' in booth 248.</t>
         </is>
       </c>
     </row>
@@ -71966,16 +72414,16 @@
         </is>
       </c>
       <c r="N1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1017" t="inlineStr">
         <is>
-          <t>Serial number 1016 is the only voter listed under house number 49-6D on street '2-West Street Ward No-10' in booth 248. | Serial number 1016 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1016 is the only voter listed under house number 49-6D on street '2-West Street Ward No-10' in booth 248.</t>
         </is>
       </c>
     </row>
@@ -73950,10 +74398,18 @@
         </is>
       </c>
       <c r="N1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1045" t="inlineStr"/>
-      <c r="P1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1045" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1045" t="inlineStr">
+        <is>
+          <t>Serial number 1044 does not have any valid parent or spouse relationship with other voters in house number 79 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
@@ -77778,10 +78234,18 @@
         </is>
       </c>
       <c r="N1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1099" t="inlineStr"/>
-      <c r="P1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1099" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1099" t="inlineStr">
+        <is>
+          <t>Serial number 1098 does not have any valid parent or spouse relationship with other voters in house number 85J on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
